--- a/Output/April/productivity_agent/productivity_agent_2022-04-07.xlsx
+++ b/Output/April/productivity_agent/productivity_agent_2022-04-07.xlsx
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>466.3636363636364</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="CL2">
-        <v>0</v>
+        <v>0.5486631016042781</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.3048341232227488</v>
+        <v>0.3334374128798439</v>
       </c>
     </row>
     <row r="3" spans="1:105">
@@ -13200,7 +13200,7 @@
         <v>1663</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>930.5</v>
       </c>
       <c r="O38">
         <v>1663</v>
@@ -13314,7 +13314,7 @@
         <v>0</v>
       </c>
       <c r="AZ38">
-        <v>0</v>
+        <v>372.2</v>
       </c>
       <c r="BA38">
         <v>545.2459016393442</v>
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="CL38">
-        <v>0</v>
+        <v>0.4378823529411764</v>
       </c>
       <c r="CM38">
         <v>0.6815573770491803</v>
@@ -13473,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="DA38">
-        <v>0.398562771577064</v>
+        <v>0.5678471863739105</v>
       </c>
     </row>
     <row r="39" spans="1:105">
@@ -13517,7 +13517,7 @@
         <v>528</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>3177</v>
       </c>
       <c r="O39">
         <v>528</v>
@@ -13631,7 +13631,7 @@
         <v>2262.857142857143</v>
       </c>
       <c r="AZ39">
-        <v>0</v>
+        <v>648.3673469387755</v>
       </c>
       <c r="BA39">
         <v>621.1764705882352</v>
@@ -13745,7 +13745,7 @@
         <v>0.487895028645352</v>
       </c>
       <c r="CL39">
-        <v>0</v>
+        <v>0.7627851140456183</v>
       </c>
       <c r="CM39">
         <v>0.776470588235294</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="DA39">
-        <v>0.2778223174335664</v>
+        <v>0.7921774172716669</v>
       </c>
     </row>
     <row r="40" spans="1:105">
@@ -13834,7 +13834,7 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1537</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -13948,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="AZ40">
-        <v>0</v>
+        <v>614.8</v>
       </c>
       <c r="BA40">
         <v>0</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="CL40">
-        <v>0</v>
+        <v>0.7232941176470588</v>
       </c>
       <c r="CM40">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="DA40">
-        <v>0.1389071652090187</v>
+        <v>0.490020814552251</v>
       </c>
     </row>
     <row r="41" spans="1:105">
@@ -14151,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -14265,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="AZ41">
-        <v>0</v>
+        <v>701.0126582278481</v>
       </c>
       <c r="BA41">
         <v>0</v>
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="CL41">
-        <v>0</v>
+        <v>0.8247207743857036</v>
       </c>
       <c r="CM41">
         <v>0</v>
@@ -14424,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="DA41">
-        <v>0.3996955257647323</v>
+        <v>0.6532089155564467</v>
       </c>
     </row>
     <row r="42" spans="1:105">
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -14899,7 +14899,7 @@
         <v>0</v>
       </c>
       <c r="AZ43">
-        <v>0</v>
+        <v>196.0975609756098</v>
       </c>
       <c r="BA43">
         <v>0</v>
@@ -15013,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="CL43">
-        <v>0</v>
+        <v>0.2307030129124821</v>
       </c>
       <c r="CM43">
         <v>0</v>
@@ -15058,7 +15058,7 @@
         <v>0</v>
       </c>
       <c r="DA43">
-        <v>0.2983811258079363</v>
+        <v>0.3212838462181343</v>
       </c>
     </row>
     <row r="44" spans="1:105">
@@ -17004,7 +17004,7 @@
         <v>7448</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="O50">
         <v>7448</v>
@@ -17118,7 +17118,7 @@
         <v>0</v>
       </c>
       <c r="AZ50">
-        <v>0</v>
+        <v>1521.666666666667</v>
       </c>
       <c r="BA50">
         <v>1366.605504587156</v>
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="CL50">
-        <v>0</v>
+        <v>1.790196078431373</v>
       </c>
       <c r="CM50">
         <v>1.708256880733945</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="DA50">
-        <v>1.449121140142518</v>
+        <v>1.602202039960878</v>
       </c>
     </row>
     <row r="51" spans="1:105">
@@ -17955,7 +17955,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -18069,7 +18069,7 @@
         <v>0</v>
       </c>
       <c r="AZ53">
-        <v>0</v>
+        <v>389.4736842105264</v>
       </c>
       <c r="BA53">
         <v>0</v>
@@ -18183,7 +18183,7 @@
         <v>0</v>
       </c>
       <c r="CL53">
-        <v>0</v>
+        <v>0.4582043343653251</v>
       </c>
       <c r="CM53">
         <v>0</v>
@@ -18228,7 +18228,7 @@
         <v>0</v>
       </c>
       <c r="DA53">
-        <v>0.5162471139114861</v>
+        <v>0.5844394038823048</v>
       </c>
     </row>
     <row r="54" spans="1:105">
@@ -19223,7 +19223,7 @@
         <v>2853</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="O57">
         <v>2853</v>
@@ -19337,7 +19337,7 @@
         <v>0</v>
       </c>
       <c r="AZ57">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="BA57">
         <v>771.081081081081</v>
@@ -19451,7 +19451,7 @@
         <v>0</v>
       </c>
       <c r="CL57">
-        <v>0</v>
+        <v>0.7905882352941176</v>
       </c>
       <c r="CM57">
         <v>0.9638513513513512</v>
@@ -19496,7 +19496,7 @@
         <v>0</v>
       </c>
       <c r="DA57">
-        <v>0.6381945558854208</v>
+        <v>0.7053561778157463</v>
       </c>
     </row>
     <row r="58" spans="1:105">
@@ -20491,7 +20491,7 @@
         <v>22</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>3450.5</v>
       </c>
       <c r="O61">
         <v>22</v>
@@ -20605,7 +20605,7 @@
         <v>0</v>
       </c>
       <c r="AZ61">
-        <v>0</v>
+        <v>758.3516483516482</v>
       </c>
       <c r="BA61">
         <v>188.5714285714286</v>
@@ -20719,7 +20719,7 @@
         <v>0</v>
       </c>
       <c r="CL61">
-        <v>0</v>
+        <v>0.8921784098254685</v>
       </c>
       <c r="CM61">
         <v>0.2357142857142857</v>
@@ -20764,7 +20764,7 @@
         <v>0</v>
       </c>
       <c r="DA61">
-        <v>0.2119134396355353</v>
+        <v>0.7667305373174327</v>
       </c>
     </row>
     <row r="62" spans="1:105">
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -21239,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="AZ63">
-        <v>0</v>
+        <v>212.7272727272727</v>
       </c>
       <c r="BA63">
         <v>0</v>
@@ -21353,7 +21353,7 @@
         <v>0</v>
       </c>
       <c r="CL63">
-        <v>0</v>
+        <v>0.2502673796791444</v>
       </c>
       <c r="CM63">
         <v>0</v>
@@ -21398,7 +21398,7 @@
         <v>0</v>
       </c>
       <c r="DA63">
-        <v>0.6072249077394875</v>
+        <v>0.6418530986384886</v>
       </c>
     </row>
     <row r="64" spans="1:105">
@@ -21442,7 +21442,7 @@
         <v>1178</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="O64">
         <v>1207</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="AZ64">
-        <v>0</v>
+        <v>374.9999999999999</v>
       </c>
       <c r="BA64">
         <v>598.5123966942149</v>
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="CL64">
-        <v>0</v>
+        <v>0.4411764705882352</v>
       </c>
       <c r="CM64">
         <v>0.7481404958677687</v>
@@ -21715,7 +21715,7 @@
         <v>0</v>
       </c>
       <c r="DA64">
-        <v>0.438986324602256</v>
+        <v>0.5654473324581671</v>
       </c>
     </row>
     <row r="65" spans="1:105">
@@ -21759,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -21801,7 +21801,7 @@
         <v>0</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -21873,7 +21873,7 @@
         <v>0</v>
       </c>
       <c r="AZ65">
-        <v>0</v>
+        <v>860.7272727272727</v>
       </c>
       <c r="BA65">
         <v>0</v>
@@ -21915,7 +21915,7 @@
         <v>0</v>
       </c>
       <c r="BN65">
-        <v>0</v>
+        <v>88.7323943661972</v>
       </c>
       <c r="BO65">
         <v>0</v>
@@ -21987,7 +21987,7 @@
         <v>0</v>
       </c>
       <c r="CL65">
-        <v>0</v>
+        <v>1.012620320855615</v>
       </c>
       <c r="CM65">
         <v>0</v>
@@ -22029,10 +22029,10 @@
         <v>0</v>
       </c>
       <c r="CZ65">
-        <v>0</v>
+        <v>0.443661971830986</v>
       </c>
       <c r="DA65">
-        <v>0.1094930875576037</v>
+        <v>0.6007237733803199</v>
       </c>
     </row>
     <row r="66" spans="1:105">
@@ -23978,7 +23978,7 @@
         <v>1050</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="O72">
         <v>1050</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="AZ72">
-        <v>0</v>
+        <v>629.6774193548388</v>
       </c>
       <c r="BA72">
         <v>851.3513513513514</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="CL72">
-        <v>0</v>
+        <v>0.7407969639468691</v>
       </c>
       <c r="CM72">
         <v>1.064189189189189</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="DA72">
-        <v>0.6892285714285714</v>
+        <v>0.8860689075630253</v>
       </c>
     </row>
     <row r="73" spans="1:105">
@@ -24295,7 +24295,7 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>1787</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="AZ73">
-        <v>0</v>
+        <v>549.8461538461538</v>
       </c>
       <c r="BA73">
         <v>0</v>
@@ -24523,7 +24523,7 @@
         <v>0</v>
       </c>
       <c r="CL73">
-        <v>0</v>
+        <v>0.6468778280542986</v>
       </c>
       <c r="CM73">
         <v>0</v>
@@ -24568,7 +24568,7 @@
         <v>0</v>
       </c>
       <c r="DA73">
-        <v>0.1722284905385432</v>
+        <v>0.4899644514216369</v>
       </c>
     </row>
     <row r="74" spans="1:105">
@@ -25563,7 +25563,7 @@
         <v>402</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="O77">
         <v>402</v>
@@ -25677,7 +25677,7 @@
         <v>0</v>
       </c>
       <c r="AZ77">
-        <v>0</v>
+        <v>365.2173913043479</v>
       </c>
       <c r="BA77">
         <v>438.5454545454546</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="CL77">
-        <v>0</v>
+        <v>0.4296675191815857</v>
       </c>
       <c r="CM77">
         <v>0.5481818181818182</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="DA77">
-        <v>0.3346782178217822</v>
+        <v>0.383600757134537</v>
       </c>
     </row>
     <row r="78" spans="1:105">
@@ -26514,7 +26514,7 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -26628,7 +26628,7 @@
         <v>0</v>
       </c>
       <c r="AZ80">
-        <v>0</v>
+        <v>343.125</v>
       </c>
       <c r="BA80">
         <v>0</v>
@@ -26742,7 +26742,7 @@
         <v>0</v>
       </c>
       <c r="CL80">
-        <v>0</v>
+        <v>0.4036764705882353</v>
       </c>
       <c r="CM80">
         <v>0</v>
@@ -26787,7 +26787,7 @@
         <v>0</v>
       </c>
       <c r="DA80">
-        <v>0.5267677380230444</v>
+        <v>0.6155488174651306</v>
       </c>
     </row>
     <row r="81" spans="1:105">
@@ -31269,7 +31269,7 @@
         <v>20</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="O95">
         <v>10</v>
@@ -31383,7 +31383,7 @@
         <v>7.692307692307693</v>
       </c>
       <c r="AZ95">
-        <v>0</v>
+        <v>742.8571428571428</v>
       </c>
       <c r="BA95">
         <v>200</v>
@@ -31497,7 +31497,7 @@
         <v>0.001658539821541115</v>
       </c>
       <c r="CL95">
-        <v>0</v>
+        <v>0.8739495798319327</v>
       </c>
       <c r="CM95">
         <v>0.25</v>
@@ -31542,7 +31542,7 @@
         <v>0</v>
       </c>
       <c r="DA95">
-        <v>0.2220664552342568</v>
+        <v>0.3583506718912166</v>
       </c>
     </row>
     <row r="96" spans="1:105">
@@ -32220,7 +32220,7 @@
         <v>112</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O98">
         <v>100</v>
@@ -32334,7 +32334,7 @@
         <v>37.96610169491526</v>
       </c>
       <c r="AZ98">
-        <v>0</v>
+        <v>13.84615384615384</v>
       </c>
       <c r="BA98">
         <v>750</v>
@@ -32448,7 +32448,7 @@
         <v>0.008185877898860557</v>
       </c>
       <c r="CL98">
-        <v>0</v>
+        <v>0.01628959276018099</v>
       </c>
       <c r="CM98">
         <v>0.9375</v>
@@ -32493,7 +32493,7 @@
         <v>0</v>
       </c>
       <c r="DA98">
-        <v>0.1692807173225848</v>
+        <v>0.1698640911679908</v>
       </c>
     </row>
     <row r="99" spans="1:105">
